--- a/working_files/Backup of practice_xcs.xlsx
+++ b/working_files/Backup of practice_xcs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr backupFile="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <workbookPr backupFile="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="15"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25380" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="27" r:id="rId1"/>
@@ -24,12 +24,17 @@
     <sheet name="raise3" sheetId="25" r:id="rId15"/>
     <sheet name="Vertical_1_W" sheetId="33" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="99">
   <si>
     <t>FIELDS Template</t>
   </si>
@@ -265,18 +270,6 @@
     <t>Single Conductor with 1 Ground line</t>
   </si>
   <si>
-    <t>HL_E</t>
-  </si>
-  <si>
-    <t>High Load Existing Scenario</t>
-  </si>
-  <si>
-    <t>HL_P</t>
-  </si>
-  <si>
-    <t>High Load Proposed Scenario</t>
-  </si>
-  <si>
     <t>und_E</t>
   </si>
   <si>
@@ -333,12 +326,18 @@
   <si>
     <t>raise3</t>
   </si>
+  <si>
+    <t>Existing Configuration</t>
+  </si>
+  <si>
+    <t>Proposed Configuration</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -669,7 +668,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -688,6 +687,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -834,6 +835,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,12 +869,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -877,6 +878,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -884,6 +886,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="17"/>
@@ -967,7 +970,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -981,12 +994,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1009,7 +1024,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,11 +1036,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1060,6 +1076,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1087,10 +1104,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,11 +1122,12 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1135,10 +1153,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1153,20 +1171,30 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62092032"/>
-        <c:axId val="62094336"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125744792"/>
+        <c:axId val="2125737832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62092032"/>
+        <c:axId val="2125744792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1184,19 +1212,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62094336"/>
+        <c:crossAx val="2125737832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62094336"/>
+        <c:axId val="2125737832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1215,25 +1246,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62092032"/>
+        <c:crossAx val="2125744792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1241,7 +1275,17 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1255,12 +1299,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1330,6 +1376,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1353,10 +1400,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,6 +1423,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1403,10 +1451,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,11 +1469,12 @@
                   <c:v>57.5715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1451,10 +1500,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,20 +1518,30 @@
                   <c:v>57.5715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="128990208"/>
-        <c:axId val="129021056"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128117016"/>
+        <c:axId val="2128122600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128990208"/>
+        <c:axId val="2128117016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1500,19 +1559,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129021056"/>
+        <c:crossAx val="2128122600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129021056"/>
+        <c:axId val="2128122600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1531,25 +1593,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128990208"/>
+        <c:crossAx val="2128117016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1557,7 +1622,17 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1571,12 +1646,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1602,7 +1679,7 @@
                   <c:v>-234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-200</c:v>
+                  <c:v>-200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-165.5</c:v>
@@ -1611,28 +1688,28 @@
                   <c:v>-84.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1748,7 @@
                   <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.67</c:v>
@@ -1682,6 +1759,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1705,22 +1783,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-222</c:v>
+                  <c:v>-222.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72</c:v>
+                  <c:v>-72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1752,6 +1830,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1779,10 +1858,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,14 +1873,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1827,10 +1907,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-150</c:v>
+                  <c:v>-150.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-150</c:v>
+                  <c:v>-150.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,23 +1922,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="129146880"/>
-        <c:axId val="129148800"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128175256"/>
+        <c:axId val="2128180840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129146880"/>
+        <c:axId val="2128175256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1876,19 +1966,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129148800"/>
+        <c:crossAx val="2128180840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129148800"/>
+        <c:axId val="2128180840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1907,25 +2000,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129146880"/>
+        <c:crossAx val="2128175256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1933,7 +2029,17 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1947,12 +2053,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1978,7 +2086,7 @@
                   <c:v>-234.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-200</c:v>
+                  <c:v>-200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-165.5</c:v>
@@ -1987,28 +2095,28 @@
                   <c:v>-84.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-15.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>217.58</c:v>
@@ -2065,7 +2173,7 @@
                   <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.670000000000002</c:v>
+                  <c:v>17.67</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>40.67</c:v>
@@ -2074,7 +2182,7 @@
                   <c:v>63.67</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>32.17</c:v>
@@ -2083,7 +2191,7 @@
                   <c:v>44.17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>32.17</c:v>
@@ -2094,6 +2202,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2117,22 +2226,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-222</c:v>
+                  <c:v>-222.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-178</c:v>
+                  <c:v>-178.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-72</c:v>
+                  <c:v>-72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-28</c:v>
+                  <c:v>-28.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>219.66</c:v>
@@ -2176,6 +2285,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2203,10 +2313,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275</c:v>
+                  <c:v>275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,14 +2328,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2251,10 +2362,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-275</c:v>
+                  <c:v>-275.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-275</c:v>
+                  <c:v>-275.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,23 +2377,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>97.902000000000001</c:v>
+                  <c:v>97.902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135148288"/>
-        <c:axId val="135150208"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2081985560"/>
+        <c:axId val="2081991176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135148288"/>
+        <c:axId val="2081985560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2300,19 +2421,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135150208"/>
+        <c:crossAx val="2081991176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135150208"/>
+        <c:axId val="2081991176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2331,25 +2455,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135148288"/>
+        <c:crossAx val="2081985560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2357,7 +2484,17 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2371,12 +2508,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2399,13 +2538,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,17 +2556,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2451,7 +2591,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,11 +2603,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2495,10 +2636,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2513,11 +2654,12 @@
                   <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2543,10 +2685,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,20 +2703,30 @@
                   <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135010176"/>
-        <c:axId val="135024640"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128237112"/>
+        <c:axId val="2128242696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135010176"/>
+        <c:axId val="2128237112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2592,19 +2744,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135024640"/>
+        <c:crossAx val="2128242696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135024640"/>
+        <c:axId val="2128242696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2623,25 +2778,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135010176"/>
+        <c:crossAx val="2128237112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2649,7 +2807,17 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2663,12 +2831,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2691,13 +2861,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,17 +2879,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2743,7 +2914,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,11 +2926,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2787,10 +2959,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2805,11 +2977,12 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2835,10 +3008,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2853,20 +3026,30 @@
                   <c:v>26.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135244416"/>
-        <c:axId val="135258880"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128295608"/>
+        <c:axId val="2128301192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135244416"/>
+        <c:axId val="2128295608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2884,19 +3067,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135258880"/>
+        <c:crossAx val="2128301192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135258880"/>
+        <c:axId val="2128301192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -2915,25 +3101,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135244416"/>
+        <c:crossAx val="2128295608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2941,7 +3130,17 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2955,12 +3154,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2983,13 +3184,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3001,17 +3202,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3035,7 +3237,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3047,11 +3249,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3079,10 +3282,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3097,11 +3300,12 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3127,10 +3331,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3145,20 +3349,30 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="135286144"/>
-        <c:axId val="135308800"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128353944"/>
+        <c:axId val="2128359528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="135286144"/>
+        <c:axId val="2128353944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3176,19 +3390,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135308800"/>
+        <c:crossAx val="2128359528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="135308800"/>
+        <c:axId val="2128359528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3207,25 +3424,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135286144"/>
+        <c:crossAx val="2128353944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3233,7 +3453,17 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3247,12 +3477,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3275,13 +3507,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3304,6 +3536,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3327,7 +3560,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,11 +3572,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3371,10 +3605,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,11 +3623,12 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3419,10 +3654,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-30</c:v>
+                  <c:v>-30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-30</c:v>
+                  <c:v>-30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,20 +3672,30 @@
                   <c:v>36.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="145473920"/>
-        <c:axId val="145475840"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128411624"/>
+        <c:axId val="2128417208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145473920"/>
+        <c:axId val="2128411624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3468,19 +3713,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145475840"/>
+        <c:crossAx val="2128417208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145475840"/>
+        <c:axId val="2128417208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3499,25 +3747,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145473920"/>
+        <c:crossAx val="2128411624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000162" r="0.70000000000000162" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3525,7 +3776,17 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3540,11 +3801,14 @@
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3567,7 +3831,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3579,11 +3843,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3607,7 +3872,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3619,11 +3884,12 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3651,10 +3917,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3669,11 +3935,12 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3699,10 +3966,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,20 +3984,30 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62584704"/>
-        <c:axId val="62590976"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124516024"/>
+        <c:axId val="2124510440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62584704"/>
+        <c:axId val="2124516024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3749,18 +4026,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62590976"/>
+        <c:crossAx val="2124510440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62590976"/>
+        <c:axId val="2124510440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3780,10 +4061,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62584704"/>
+        <c:crossAx val="2124516024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3791,13 +4075,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3805,7 +4091,17 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3814,17 +4110,20 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>HL_E</c:v>
+              <c:v>Existing Configuration</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3847,31 +4146,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,35 +4182,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3935,13 +4235,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3953,17 +4253,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3991,10 +4292,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4009,11 +4310,12 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4039,10 +4341,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4057,20 +4359,30 @@
                   <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62655104"/>
-        <c:axId val="62661376"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124460344"/>
+        <c:axId val="2124454760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62655104"/>
+        <c:axId val="2124460344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4089,18 +4401,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62661376"/>
+        <c:crossAx val="2124454760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62661376"/>
+        <c:axId val="2124454760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4120,10 +4436,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62655104"/>
+        <c:crossAx val="2124460344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4131,13 +4450,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4145,7 +4466,17 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4154,17 +4485,20 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>HL_P</c:v>
+              <c:v>Proposed Configuration</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4187,31 +4521,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
+                  <c:v>-20.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-15</c:v>
+                  <c:v>-15.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4223,35 +4557,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4275,13 +4610,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-23</c:v>
+                  <c:v>-23.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4293,17 +4628,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4331,10 +4667,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,14 +4682,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4379,10 +4716,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-45</c:v>
+                  <c:v>-45.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,23 +4731,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>37.800000000000004</c:v>
+                  <c:v>37.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62737408"/>
-        <c:axId val="62760064"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2126972136"/>
+        <c:axId val="2126977720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62737408"/>
+        <c:axId val="2126972136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4429,18 +4776,22 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62760064"/>
+        <c:crossAx val="2126977720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62760064"/>
+        <c:axId val="2126977720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4460,10 +4811,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62737408"/>
+        <c:crossAx val="2126972136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4471,13 +4825,15 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4485,7 +4841,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4499,12 +4865,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4545,13 +4913,13 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4569,7 +4937,7 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.17</c:v>
@@ -4578,20 +4946,21 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4621,7 +4990,7 @@
                   <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4639,11 +5008,12 @@
                   <c:v>55.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4671,10 +5041,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4686,14 +5056,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4719,10 +5090,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4734,23 +5105,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97074176"/>
-        <c:axId val="97084544"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125648744"/>
+        <c:axId val="2125643160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97074176"/>
+        <c:axId val="2125648744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -4768,19 +5149,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97084544"/>
+        <c:crossAx val="2125643160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97084544"/>
+        <c:axId val="2125643160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -4799,25 +5183,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97074176"/>
+        <c:crossAx val="2125648744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4825,7 +5212,17 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4839,12 +5236,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4885,13 +5284,13 @@
                   <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>18.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.329999999999998</c:v>
+                  <c:v>19.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4909,7 +5308,7 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44.17</c:v>
@@ -4918,20 +5317,21 @@
                   <c:v>32.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.170000000000002</c:v>
+                  <c:v>20.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4978,6 +5378,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5005,10 +5406,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5020,14 +5421,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5053,10 +5455,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-50</c:v>
+                  <c:v>-50.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5068,23 +5470,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>57.928500000000007</c:v>
+                  <c:v>57.9285</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="126988288"/>
-        <c:axId val="126990208"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125589464"/>
+        <c:axId val="2125583880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126988288"/>
+        <c:axId val="2125589464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5102,19 +5514,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126990208"/>
+        <c:crossAx val="2125583880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126990208"/>
+        <c:axId val="2125583880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5133,25 +5548,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126988288"/>
+        <c:crossAx val="2125589464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5159,7 +5577,17 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5173,12 +5601,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5237,13 +5667,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45.08</c:v>
@@ -5266,6 +5696,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5289,10 +5720,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8</c:v>
+                  <c:v>-8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,6 +5743,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5354,14 +5786,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.292999999999999</c:v>
+                  <c:v>55.293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5402,23 +5835,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.292999999999999</c:v>
+                  <c:v>55.293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="128762624"/>
-        <c:axId val="128764544"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125530936"/>
+        <c:axId val="2125525352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128762624"/>
+        <c:axId val="2125530936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5436,19 +5879,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128764544"/>
+        <c:crossAx val="2125525352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128764544"/>
+        <c:axId val="2125525352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5467,25 +5913,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128762624"/>
+        <c:crossAx val="2125530936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5493,7 +5942,17 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5507,12 +5966,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5544,7 +6005,7 @@
                   <c:v>-33.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-18.579999999999998</c:v>
+                  <c:v>-18.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-15.33</c:v>
@@ -5556,7 +6017,7 @@
                   <c:v>-11.33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11</c:v>
+                  <c:v>-11.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-10.67</c:v>
@@ -5571,35 +6032,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5646,6 +6108,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5688,14 +6151,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72.712500000000006</c:v>
+                  <c:v>72.7125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -5736,23 +6200,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>72.712500000000006</c:v>
+                  <c:v>72.7125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="128923136"/>
-        <c:axId val="128925056"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125472392"/>
+        <c:axId val="2125466808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128923136"/>
+        <c:axId val="2125472392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -5770,19 +6244,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128925056"/>
+        <c:crossAx val="2125466808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128925056"/>
+        <c:axId val="2125466808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -5801,25 +6278,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128923136"/>
+        <c:crossAx val="2125472392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5827,7 +6307,17 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -5841,12 +6331,14 @@
           </c:strCache>
         </c:strRef>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5872,7 +6364,7 @@
                   <c:v>-37.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25</c:v>
+                  <c:v>-25.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-12.5</c:v>
@@ -5881,7 +6373,7 @@
                   <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>36.5</c:v>
@@ -5896,26 +6388,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5968,6 +6461,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5995,10 +6489,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,11 +6507,12 @@
                   <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -6043,10 +6538,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-60</c:v>
+                  <c:v>-60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,20 +6556,30 @@
                   <c:v>49.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="129054976"/>
-        <c:axId val="129065344"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2128057048"/>
+        <c:axId val="2128062632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129054976"/>
+        <c:axId val="2128057048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -6092,19 +6597,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129065344"/>
+        <c:crossAx val="2128062632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129065344"/>
+        <c:axId val="2128062632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -6123,25 +6631,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129054976"/>
+        <c:crossAx val="2128057048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000162" r="0.70000000000000162" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.700000000000002" r="0.700000000000002" t="0.750000000000003" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7003,29 +7514,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -7044,7 +7555,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -7061,34 +7572,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -7145,7 +7656,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>69</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -7205,7 +7716,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>68</v>
       </c>
       <c r="C7" s="77"/>
@@ -7301,7 +7812,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -7311,15 +7822,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -7417,33 +7928,38 @@
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -7462,7 +7978,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -7479,34 +7995,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -7563,8 +8079,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>92</v>
+      <c r="B5" s="83" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>37</v>
@@ -7672,8 +8188,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>93</v>
+      <c r="B7" s="83" t="s">
+        <v>89</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>35</v>
@@ -7865,7 +8381,7 @@
       <c r="K13" s="50"/>
       <c r="L13" s="44"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -7875,15 +8391,15 @@
       <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="44"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="47"/>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -7990,29 +8506,29 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -8031,7 +8547,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -8048,34 +8564,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -8132,8 +8648,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>94</v>
+      <c r="B5" s="83" t="s">
+        <v>90</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>26</v>
@@ -8241,8 +8757,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>95</v>
+      <c r="B7" s="83" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>24</v>
@@ -8543,7 +9059,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -8580,10 +9096,10 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="76" t="s">
         <v>54</v>
       </c>
@@ -8614,8 +9130,8 @@
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77" t="s">
         <v>55</v>
       </c>
@@ -8731,29 +9247,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="46" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="49" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="49" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="46" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="44" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="49" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="41" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="44" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="49" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8772,7 +9288,7 @@
       <c r="N1" s="36"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -8789,34 +9305,34 @@
       <c r="N2" s="40"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -8873,8 +9389,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>96</v>
+      <c r="B5" s="83" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>26</v>
@@ -8982,8 +9498,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>97</v>
+      <c r="B7" s="83" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="62" t="s">
         <v>24</v>
@@ -9307,7 +9823,7 @@
       <c r="L13" s="44"/>
       <c r="O13" s="79"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -9345,10 +9861,10 @@
       <c r="O14" s="79"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="61" t="s">
         <v>54</v>
       </c>
@@ -9380,8 +9896,8 @@
       <c r="O15" s="79"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="62" t="s">
         <v>55</v>
       </c>
@@ -9651,29 +10167,29 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -9692,7 +10208,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -9709,34 +10225,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -9793,8 +10309,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>98</v>
+      <c r="B5" s="83" t="s">
+        <v>94</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>24</v>
@@ -9891,7 +10407,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="77" t="s">
@@ -10005,7 +10521,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10015,15 +10531,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -10130,29 +10646,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -10171,7 +10687,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -10188,34 +10704,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -10272,8 +10788,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>99</v>
+      <c r="B5" s="82" t="s">
+        <v>95</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>24</v>
@@ -10484,7 +11000,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10494,15 +11010,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -10609,29 +11125,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -10650,7 +11166,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -10667,34 +11183,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -10751,8 +11267,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>100</v>
+      <c r="B5" s="82" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>24</v>
@@ -10963,7 +11479,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -10973,15 +11489,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11088,29 +11604,29 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +11645,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -11146,34 +11662,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -11442,7 +11958,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -11452,15 +11968,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11558,33 +12074,38 @@
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -11603,7 +12124,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -11620,34 +12141,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -11704,7 +12225,7 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="83" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="76" t="s">
@@ -11775,7 +12296,7 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="83" t="s">
         <v>77</v>
       </c>
       <c r="C7" s="77"/>
@@ -11871,7 +12392,7 @@
       <c r="K13" s="80"/>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -11881,15 +12402,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -11987,33 +12508,38 @@
 &amp;Z&amp;F\&amp;A&amp;R&amp;"-,Regular"&amp;9Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12032,7 +12558,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -12049,34 +12575,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -12133,8 +12659,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>78</v>
+      <c r="B5" s="83" t="s">
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>24</v>
@@ -12242,8 +12768,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>79</v>
+      <c r="B7" s="83" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -12511,7 +13037,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -12521,15 +13047,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -12636,29 +13162,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -12677,7 +13203,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -12694,34 +13220,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -12778,8 +13304,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>80</v>
+      <c r="B5" s="83" t="s">
+        <v>98</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>24</v>
@@ -12887,8 +13413,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>81</v>
+      <c r="B7" s="83" t="s">
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>26</v>
@@ -13156,7 +13682,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -13166,15 +13692,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -13281,29 +13807,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13322,7 +13848,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13339,34 +13865,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -13423,8 +13949,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>82</v>
+      <c r="B5" s="83" t="s">
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>35</v>
@@ -13532,8 +14058,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>83</v>
+      <c r="B7" s="83" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>38</v>
@@ -13801,7 +14327,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -13811,15 +14337,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -13926,29 +14452,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -13967,7 +14493,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -13984,34 +14510,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -14068,8 +14594,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>84</v>
+      <c r="B5" s="83" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>35</v>
@@ -14177,8 +14703,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>85</v>
+      <c r="B7" s="83" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>38</v>
@@ -14435,7 +14961,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -14445,15 +14971,15 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -14560,29 +15086,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -14601,7 +15127,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -14618,34 +15144,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -14702,8 +15228,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>86</v>
+      <c r="B5" s="83" t="s">
+        <v>82</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>39</v>
@@ -14813,8 +15339,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>87</v>
+      <c r="B7" s="83" t="s">
+        <v>83</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>41</v>
@@ -15075,7 +15601,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -15085,15 +15611,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -15200,29 +15726,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="67" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="76" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="74" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="71" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="74" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="79" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="76" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="74" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="79" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="71" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="74" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="79" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:18" s="27" customFormat="1">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -15241,7 +15767,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:18" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:18" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="68"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -15258,34 +15784,34 @@
       <c r="N2" s="70"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:18" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:18" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -15343,8 +15869,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>88</v>
+      <c r="B5" s="83" t="s">
+        <v>84</v>
       </c>
       <c r="C5" s="76" t="s">
         <v>35</v>
@@ -15458,8 +15984,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>89</v>
+      <c r="B7" s="83" t="s">
+        <v>85</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>38</v>
@@ -15727,7 +16253,7 @@
       </c>
       <c r="L13" s="74"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5" thickBot="1">
+    <row r="14" spans="1:18" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -15737,15 +16263,15 @@
       <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="77"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
@@ -15852,29 +16378,29 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="11" customWidth="1"/>
-    <col min="4" max="10" width="10.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="10.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="14" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="30"/>
+    <col min="1" max="1" width="35.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="11" customWidth="1"/>
+    <col min="4" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="6" customWidth="1"/>
+    <col min="13" max="14" width="10.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="22.5" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="27" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -15893,7 +16419,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="26"/>
     </row>
-    <row r="2" spans="1:17" s="29" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:17" s="29" customFormat="1" ht="15" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -15910,34 +16436,34 @@
       <c r="N2" s="5"/>
       <c r="O2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
-      <c r="A3" s="82" t="s">
+    <row r="3" spans="1:17" ht="15">
+      <c r="A3" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="84" t="s">
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="87" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="87"/>
-    </row>
-    <row r="4" spans="1:17" ht="38.25">
+      <c r="Q3" s="89"/>
+    </row>
+    <row r="4" spans="1:17" ht="42">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -15994,8 +16520,8 @@
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93" t="s">
-        <v>90</v>
+      <c r="B5" s="83" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>37</v>
@@ -16103,8 +16629,8 @@
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>91</v>
+      <c r="B7" s="83" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>35</v>
@@ -16312,7 +16838,7 @@
       <c r="L13" s="9"/>
       <c r="O13" s="49"/>
     </row>
-    <row r="14" spans="1:17" ht="13.5" thickBot="1">
+    <row r="14" spans="1:17" ht="15" thickBot="1">
       <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
@@ -16323,16 +16849,16 @@
       <c r="O14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="91"/>
       <c r="L15" s="9"/>
       <c r="O15" s="49"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="12"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
